--- a/logs/2024/The Emperor - Ryszard Kapuściński.xlsx
+++ b/logs/2024/The Emperor - Ryszard Kapuściński.xlsx
@@ -430,7 +430,7 @@
         <v>45596</v>
       </c>
       <c r="B1" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45599</v>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45601</v>
       </c>
       <c r="B3" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45603</v>
       </c>
       <c r="B4" t="n">
-        <v>136</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45607</v>
       </c>
       <c r="B5" t="n">
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45608</v>
       </c>
       <c r="B6" t="n">
-        <v>170</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45612</v>
       </c>
       <c r="B7" t="n">
-        <v>203</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45615</v>
       </c>
       <c r="B8" t="n">
-        <v>247</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45616</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>45617</v>
       </c>
       <c r="B10" t="n">
-        <v>309</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>45621</v>
       </c>
       <c r="B11" t="n">
-        <v>382</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
